--- a/01_data/신원몰/man/20201211남성기술서.xlsx
+++ b/01_data/신원몰/man/20201211남성기술서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wave\Desktop\상세페이지_전달\신원몰\남성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_work\00_git\ImageMaking\01_data\신원몰\man\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57769B88-D703-4BB1-8661-4FA7584E9C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72D820-59BC-482C-AE4F-3E6174B31F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A21EF1C2-D22B-42A9-B946-4183523D2961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A21EF1C2-D22B-42A9-B946-4183523D2961}"/>
   </bookViews>
   <sheets>
     <sheet name="남성정보고시" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>2020년 10월</t>
   </si>
   <si>
-    <t xml:space="preserve"> 95, 97,100,103,105,110</t>
-  </si>
-  <si>
     <t>사이즈
 어깨넓이
 가슴둘레
@@ -274,6 +271,10 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95,97,100,103,105,110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,6 +541,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -551,9 +555,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -882,34 +883,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC52650E-206D-4667-9A77-CBEB1644F25F}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="12" customWidth="1"/>
     <col min="3" max="4" width="9" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="34.09765625" style="12" customWidth="1"/>
     <col min="7" max="8" width="9" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="12" customWidth="1"/>
     <col min="10" max="10" width="9" style="12" customWidth="1"/>
     <col min="11" max="11" width="62.5" style="15" customWidth="1"/>
     <col min="12" max="13" width="9" style="15" customWidth="1"/>
     <col min="14" max="14" width="9" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="8.125" style="12" customWidth="1"/>
-    <col min="19" max="25" width="6.875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.59765625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="16.09765625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="8.09765625" style="12" customWidth="1"/>
+    <col min="19" max="25" width="6.8984375" style="12" customWidth="1"/>
     <col min="26" max="32" width="3.5" style="16" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="11" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="11" customFormat="1" ht="99.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,17 +957,17 @@
       <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="9" t="s">
         <v>16</v>
       </c>
@@ -977,8 +978,8 @@
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:32" ht="99.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1024,31 +1025,31 @@
         <v>32</v>
       </c>
       <c r="P2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="Y2" s="15"/>
       <c r="Z2" s="12" t="e">
@@ -1073,8 +1074,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:32" ht="75.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -1090,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>25</v>
@@ -1105,7 +1106,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>30</v>
@@ -1120,31 +1121,31 @@
         <v>32</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="Y3" s="15"/>
       <c r="Z3" s="12" t="e">
